--- a/biology/Botanique/Touroulia_guianensis/Touroulia_guianensis.xlsx
+++ b/biology/Botanique/Touroulia_guianensis/Touroulia_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Touroulia guianensis est une espèce de plantes à fleurs de la famille des Ochnaceae (anciennement des Quiinaceae), et qui est l'espèce type du genre Touroulia Aubl.. C'est un arbuste ou un petit arbre originaire d'Amérique du Sud.
-L'espèce est connue en Guyane sous les noms de Bois macaque[3], Bois flambeau (Créole), Touroulier de la Guyane[4] (Français), Yooka wiwii (nom générique, "âme-feuille" en Nenge tongo)[5], Mongui oudou [monki-oedoe, mangui-oedoe] (Nenge tongo), Yoyo mosi, Palmito ou Oulatalheua.
-On rapporte le nom de Redi-oedoe au Suriname[6].
+L'espèce est connue en Guyane sous les noms de Bois macaque, Bois flambeau (Créole), Touroulier de la Guyane (Français), Yooka wiwii (nom générique, "âme-feuille" en Nenge tongo), Mongui oudou [monki-oedoe, mangui-oedoe] (Nenge tongo), Yoyo mosi, Palmito ou Oulatalheua.
+On rapporte le nom de Redi-oedoe au Suriname.
 </t>
         </is>
       </c>
@@ -513,12 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Touroulia guianensis est un arbre atteignant 10-15(–30) m de haut, pour 60 cm de diamètre.
 Ses rameaux sont cylindriques, lenticellés, finement et nettement poilus, glabrescents.
-Son écorce est épaisse et ridée[7].
-Son bois lourd (densité : 0,91) est de couleur brun foncé, légèrement rougeâtre et un peu veiné[8].
+Son écorce est épaisse et ridée.
+Son bois lourd (densité : 0,91) est de couleur brun foncé, légèrement rougeâtre et un peu veiné.
 Les feuilles sont opposées, composées imparipennées (aussi bien sur les juvéniles que sur l'arbre adulte), chartacées ou subcoriaces, longues de 15 à 25 cm, à rachis ailé par les pennes décurrente.
 Les 3-5 paires de pennes (7-11 folioles) sont opposées, sessiles, de forme étroitement oblongue ou oblongue-lancéolée, longues de 5 à 15 cm pour 1,5 à 4 cm de large, acuminées-cuspidées à l'apex, et à base arrondie et décurrente.
 On compte 10 à 20 paires de nervures secondaires saillantes sur les deux faces (surtout dessous), arquées vers le haut près de la marge, et finissant en denticules courbes dans la marge.
@@ -539,7 +553,7 @@
 Le fruit réputé comestible, est bacciforme, non déhiscente, vivement colorée jaune orangé, plus ou moins globuleux, obovoïde, ou elliptique, mesurant 2-2,5 x 2 cm, à 7 loges, sillonné longitudinalement, couronné par les segments du calice.
 L'exocarpe est peu épais (0,1 à 0,2 cm), assez résistant, et longitudinalement sulqué.
 Le mésocarpe est pulpeux, peu épais (0,2 à 0,3 cm), mou, translucide.
-Il contient 5 à 6(7) graines ou moins oblongues, ellipsoïdes, comprimées sur les deux faces et convexes sur le dos, couvertes d'un tégument vileux brun roux, longues de 1-2 cm pour 5-6 cm de large[9],[4],[10],[3],[11],[12].
+Il contient 5 à 6(7) graines ou moins oblongues, ellipsoïdes, comprimées sur les deux faces et convexes sur le dos, couvertes d'un tégument vileux brun roux, longues de 1-2 cm pour 5-6 cm de large.
 </t>
         </is>
       </c>
@@ -568,10 +582,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Touroulia guianensis est présent au Venezuela (Bolívar, Amazonas), au Guyana, au Suriname, en Guyane, et au Brésil[13].
-Touroulia guianensis est répandu, tandis que Touroulia amazonica est beaucoup plus rare[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Touroulia guianensis est présent au Venezuela (Bolívar, Amazonas), au Guyana, au Suriname, en Guyane, et au Brésil.
+Touroulia guianensis est répandu, tandis que Touroulia amazonica est beaucoup plus rare.
 </t>
         </is>
       </c>
@@ -600,14 +616,16 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Touroulia guianensis pousse au Venezuela dans les forêts sempervirentes de plaine de basse montagne, les forêts anciennes et secondaires, sur sol préférentiellement sableux, autour de 200–700 m d'altitude[13],[6].
-En Guyane, c'est un arbre moyen du sous-étage à la canopée, présent dans les forêts anciennes de terre ferme (non inondées)[9].
-Touroulia guianensis peut être multiplié par graines[4].
-La nervation et l'histologie de Touroulia guianensis ont été étudiées[14]. Les stomates sont paracytiques. Le mésophylle de Touroulia guianensis contient des cellules cristarques (amas de cellules cristallifères à épaississement en forme de U)[15].
-Touroulia guianensis est l'hôte d'insectes galligènes[16].
-Une étude phylogénétique de Touroulia guianensis indique que le genre Tourouliaest un groupe frère de Lacunaria[17].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Touroulia guianensis pousse au Venezuela dans les forêts sempervirentes de plaine de basse montagne, les forêts anciennes et secondaires, sur sol préférentiellement sableux, autour de 200–700 m d'altitude,.
+En Guyane, c'est un arbre moyen du sous-étage à la canopée, présent dans les forêts anciennes de terre ferme (non inondées).
+Touroulia guianensis peut être multiplié par graines.
+La nervation et l'histologie de Touroulia guianensis ont été étudiées. Les stomates sont paracytiques. Le mésophylle de Touroulia guianensis contient des cellules cristarques (amas de cellules cristallifères à épaississement en forme de U).
+Touroulia guianensis est l'hôte d'insectes galligènes.
+Une étude phylogénétique de Touroulia guianensis indique que le genre Tourouliaest un groupe frère de Lacunaria.
 </t>
         </is>
       </c>
@@ -636,9 +654,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La pulpe du fruit, acide mais de goût agréable, peut être consommée crue[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe du fruit, acide mais de goût agréable, peut être consommée crue.
 </t>
         </is>
       </c>
@@ -667,9 +687,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bois de Touroulia guianensis contient de la 2,6-dimethoxy-p-benzoquinone, du friedelan-3∝-ol, de la friedeline, du sitostérol, de la β-sitostenone, et du syringaresinol[18].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bois de Touroulia guianensis contient de la 2,6-dimethoxy-p-benzoquinone, du friedelan-3∝-ol, de la friedeline, du sitostérol, de la β-sitostenone, et du syringaresinol.
 </t>
         </is>
       </c>
@@ -698,9 +720,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « Touroulia Guianenſis. (Tabula 194.)
 Arbor trunco quadraginta &amp; quinquaginta-pedali, hi ſummitate ramoſo ; ramis &amp; ramulis tetragonis, rectis, nodoſis, hinc &amp; indè ſparſis. Folia oppoſita, petiolata, imparipinnata ; foliolis oppoſitis-, ſeſſilibus, quatuor ab utroque latere coſtæ alatæ adnexis. Foliola ovato-oblonga, acuta, dentata; denticulis acutis, inferiora ſuperioribus minora. Stipulæ geminæ, breves, flavæ, ad baſim petiolorum, Flores racemoſi, terminales, racemulis oppoſitis. Bracteæ geminæ, flavæ, ad baſim pedicellorum &amp; ramuſculorum.
 Florebat Novembri, fructum ferebat Maio.
